--- a/data/notas.xlsx
+++ b/data/notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandmann/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9298A8DA-12C4-094A-AF7D-7C4B2093E8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDE650A-1F00-A54C-BB15-76D60F3EE87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{E7464FD3-8449-AD44-B3FA-21A82AA51D9C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Id</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>Q3</t>
+  </si>
+  <si>
+    <t>Turma</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Freq</t>
   </si>
 </sst>
 </file>
@@ -439,15 +451,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614BCC22-A7F6-DA41-8D4A-FB762A6C732C}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,240 +467,282 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>423</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>80</v>
+      </c>
+      <c r="E2" s="1">
         <v>0.36345037470446817</v>
       </c>
-      <c r="D2" s="1">
+      <c r="F2" s="1">
         <v>8.7763872496343023</v>
       </c>
-      <c r="E2" s="1">
+      <c r="G2" s="1">
         <v>3.2475827654642018</v>
       </c>
-      <c r="F2" s="1">
+      <c r="H2" s="1">
         <v>4.303586574136653E-2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="I2" s="1">
         <v>1.8674118141882634</v>
       </c>
-      <c r="H2" s="1">
+      <c r="J2" s="1">
         <v>5.6695151885515216</v>
       </c>
-      <c r="I2" s="1">
+      <c r="K2" s="1">
         <v>3.359593368827217</v>
       </c>
-      <c r="J2" s="1">
+      <c r="L2" s="1">
         <v>2.977894696101826</v>
       </c>
-      <c r="K2" s="1">
+      <c r="M2" s="1">
         <v>7.499848435160529</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>534</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>90</v>
+      </c>
+      <c r="E3" s="1">
         <v>9.7835057898417581</v>
       </c>
-      <c r="D3" s="1">
+      <c r="F3" s="1">
         <v>2.5753970873466416</v>
       </c>
-      <c r="E3" s="1">
+      <c r="G3" s="1">
         <v>1.4171971466370448</v>
       </c>
-      <c r="F3" s="1">
+      <c r="H3" s="1">
         <v>8.753748255904295</v>
       </c>
-      <c r="G3" s="1">
+      <c r="I3" s="1">
         <v>1.1397021363827275</v>
       </c>
-      <c r="H3" s="1">
+      <c r="J3" s="1">
         <v>9.3083645916090347</v>
       </c>
-      <c r="I3" s="1">
+      <c r="K3" s="1">
         <v>6.0564324386329327</v>
       </c>
-      <c r="J3" s="1">
+      <c r="L3" s="1">
         <v>9.149597577377218</v>
       </c>
-      <c r="K3" s="1">
+      <c r="M3" s="1">
         <v>1.7108958013310116</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>143</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>70</v>
+      </c>
+      <c r="E4" s="1">
         <v>0.49157692474395054</v>
       </c>
-      <c r="D4" s="1">
+      <c r="F4" s="1">
         <v>1.955475184107297</v>
       </c>
-      <c r="E4" s="1">
+      <c r="G4" s="1">
         <v>7.9207215092471506</v>
       </c>
-      <c r="F4" s="1">
+      <c r="H4" s="1">
         <v>8.7789720743114756</v>
       </c>
-      <c r="G4" s="1">
+      <c r="I4" s="1">
         <v>3.2058922870758555</v>
       </c>
-      <c r="H4" s="1">
+      <c r="J4" s="1">
         <v>2.8900734092053835</v>
       </c>
-      <c r="I4" s="1">
+      <c r="K4" s="1">
         <v>2.0524157845878763</v>
       </c>
-      <c r="J4" s="1">
+      <c r="L4" s="1">
         <v>3.3484750645935324</v>
       </c>
-      <c r="K4" s="1">
+      <c r="M4" s="1">
         <v>5.8774150236032305</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>654</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1">
         <v>7.561638384864974</v>
       </c>
-      <c r="D5" s="1">
+      <c r="F5" s="1">
         <v>8.6538205520249285</v>
       </c>
-      <c r="E5" s="1">
+      <c r="G5" s="1">
         <v>9.762809156341488</v>
       </c>
-      <c r="F5" s="1">
+      <c r="H5" s="1">
         <v>1.022328878843588</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1">
         <v>8.3171521252905549</v>
       </c>
-      <c r="H5" s="1">
+      <c r="J5" s="1">
         <v>6.3758929334705359</v>
       </c>
-      <c r="I5" s="1">
+      <c r="K5" s="1">
         <v>7.8168152623385758</v>
       </c>
-      <c r="J5" s="1">
+      <c r="L5" s="1">
         <v>8.1335095269353079</v>
       </c>
-      <c r="K5" s="1">
+      <c r="M5" s="1">
         <v>7.251973456028832</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>549</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>63</v>
+      </c>
+      <c r="E6" s="1">
         <v>9.756645415113109</v>
       </c>
-      <c r="D6" s="1">
+      <c r="F6" s="1">
         <v>8.5491204591226406</v>
       </c>
-      <c r="E6" s="1">
+      <c r="G6" s="1">
         <v>0.74092971588505807</v>
       </c>
-      <c r="F6" s="1">
+      <c r="H6" s="1">
         <v>5.7176941837002007</v>
       </c>
-      <c r="G6" s="1">
+      <c r="I6" s="1">
         <v>3.7447791186093795</v>
       </c>
-      <c r="H6" s="1">
-        <v>4.9121010501575455</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
+        <v>9</v>
+      </c>
+      <c r="K6" s="1">
         <v>9.7190237634388126</v>
       </c>
-      <c r="J6" s="1">
+      <c r="L6" s="1">
         <v>1.6434390699263723</v>
       </c>
-      <c r="K6" s="1">
-        <v>2.9542504051630178</v>
+      <c r="M6" s="1">
+        <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>767</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>75</v>
+      </c>
+      <c r="E7" s="1">
         <v>7.6911913974474366</v>
       </c>
-      <c r="D7" s="1">
+      <c r="F7" s="1">
         <v>7.3358318686802608</v>
       </c>
-      <c r="E7" s="1">
+      <c r="G7" s="1">
         <v>9.6672190305570176</v>
       </c>
-      <c r="F7" s="1">
+      <c r="H7" s="1">
         <v>0.83571707059658218</v>
       </c>
-      <c r="G7" s="1">
+      <c r="I7" s="1">
         <v>4.1590953979695193</v>
       </c>
-      <c r="H7" s="1">
+      <c r="J7" s="1">
         <v>4.6345981899149518</v>
       </c>
-      <c r="I7" s="1">
+      <c r="K7" s="1">
         <v>9.3250769188246654</v>
       </c>
-      <c r="J7" s="1">
+      <c r="L7" s="1">
         <v>8.1851535728064695E-2</v>
       </c>
-      <c r="K7" s="1">
+      <c r="M7" s="1">
         <v>5.6913398446763939</v>
       </c>
     </row>

--- a/data/notas.xlsx
+++ b/data/notas.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandmann/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDE650A-1F00-A54C-BB15-76D60F3EE87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7675E9D3-9A0F-3D46-921F-83EB22EB3591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{E7464FD3-8449-AD44-B3FA-21A82AA51D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -454,7 +454,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,31 +514,31 @@
         <v>80</v>
       </c>
       <c r="E2" s="1">
-        <v>0.36345037470446817</v>
+        <v>0.3</v>
       </c>
       <c r="F2" s="1">
-        <v>8.7763872496343023</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G2" s="1">
-        <v>3.2475827654642018</v>
+        <v>3.2</v>
       </c>
       <c r="H2" s="1">
-        <v>4.303586574136653E-2</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1.8674118141882634</v>
+        <v>1.8</v>
       </c>
       <c r="J2" s="1">
-        <v>5.6695151885515216</v>
+        <v>5.6</v>
       </c>
       <c r="K2" s="1">
-        <v>3.359593368827217</v>
+        <v>3.3</v>
       </c>
       <c r="L2" s="1">
-        <v>2.977894696101826</v>
+        <v>2.9</v>
       </c>
       <c r="M2" s="1">
-        <v>7.499848435160529</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -555,31 +555,31 @@
         <v>90</v>
       </c>
       <c r="E3" s="1">
-        <v>9.7835057898417581</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F3" s="1">
-        <v>2.5753970873466416</v>
+        <v>2.5</v>
       </c>
       <c r="G3" s="1">
-        <v>1.4171971466370448</v>
+        <v>1.4</v>
       </c>
       <c r="H3" s="1">
-        <v>8.753748255904295</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I3" s="1">
-        <v>1.1397021363827275</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>9.3083645916090347</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="K3" s="1">
-        <v>6.0564324386329327</v>
+        <v>6</v>
       </c>
       <c r="L3" s="1">
-        <v>9.149597577377218</v>
+        <v>9.1</v>
       </c>
       <c r="M3" s="1">
-        <v>1.7108958013310116</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -596,31 +596,31 @@
         <v>70</v>
       </c>
       <c r="E4" s="1">
-        <v>0.49157692474395054</v>
+        <v>0.4</v>
       </c>
       <c r="F4" s="1">
-        <v>1.955475184107297</v>
+        <v>1.9</v>
       </c>
       <c r="G4" s="1">
-        <v>7.9207215092471506</v>
+        <v>7.9</v>
       </c>
       <c r="H4" s="1">
-        <v>8.7789720743114756</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I4" s="1">
-        <v>3.2058922870758555</v>
+        <v>3.2</v>
       </c>
       <c r="J4" s="1">
-        <v>2.8900734092053835</v>
+        <v>2.8</v>
       </c>
       <c r="K4" s="1">
-        <v>2.0524157845878763</v>
+        <v>2</v>
       </c>
       <c r="L4" s="1">
-        <v>3.3484750645935324</v>
+        <v>3.3</v>
       </c>
       <c r="M4" s="1">
-        <v>5.8774150236032305</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -637,31 +637,31 @@
         <v>100</v>
       </c>
       <c r="E5" s="1">
-        <v>7.561638384864974</v>
+        <v>7.5</v>
       </c>
       <c r="F5" s="1">
-        <v>8.6538205520249285</v>
+        <v>8.6</v>
       </c>
       <c r="G5" s="1">
-        <v>9.762809156341488</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H5" s="1">
-        <v>1.022328878843588</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1">
-        <v>8.3171521252905549</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="J5" s="1">
-        <v>6.3758929334705359</v>
+        <v>6.3</v>
       </c>
       <c r="K5" s="1">
-        <v>7.8168152623385758</v>
+        <v>7.8</v>
       </c>
       <c r="L5" s="1">
-        <v>8.1335095269353079</v>
+        <v>8.1</v>
       </c>
       <c r="M5" s="1">
-        <v>7.251973456028832</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -678,28 +678,28 @@
         <v>63</v>
       </c>
       <c r="E6" s="1">
-        <v>9.756645415113109</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F6" s="1">
-        <v>8.5491204591226406</v>
+        <v>8.5</v>
       </c>
       <c r="G6" s="1">
-        <v>0.74092971588505807</v>
+        <v>0.7</v>
       </c>
       <c r="H6" s="1">
-        <v>5.7176941837002007</v>
+        <v>5.7</v>
       </c>
       <c r="I6" s="1">
-        <v>3.7447791186093795</v>
+        <v>3.7</v>
       </c>
       <c r="J6" s="1">
         <v>9</v>
       </c>
       <c r="K6" s="1">
-        <v>9.7190237634388126</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="L6" s="1">
-        <v>1.6434390699263723</v>
+        <v>1.6</v>
       </c>
       <c r="M6" s="1">
         <v>7</v>
@@ -719,31 +719,31 @@
         <v>75</v>
       </c>
       <c r="E7" s="1">
-        <v>7.6911913974474366</v>
+        <v>7.6</v>
       </c>
       <c r="F7" s="1">
-        <v>7.3358318686802608</v>
+        <v>7.3</v>
       </c>
       <c r="G7" s="1">
-        <v>9.6672190305570176</v>
+        <v>9.6</v>
       </c>
       <c r="H7" s="1">
-        <v>0.83571707059658218</v>
+        <v>0.8</v>
       </c>
       <c r="I7" s="1">
-        <v>4.1590953979695193</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J7" s="1">
-        <v>4.6345981899149518</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K7" s="1">
-        <v>9.3250769188246654</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="L7" s="1">
-        <v>8.1851535728064695E-2</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>5.6913398446763939</v>
+        <v>5.6</v>
       </c>
     </row>
   </sheetData>
